--- a/DOM_Banner/output/dept0713/Dawn K Coletta_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Dawn K Coletta_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Center for Disparities in Diabetes Obesity and Metabolism, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA; Phoenix Epidemiology and Clinical Research Branch, National Institute of Diabetes and Digestive and Kidney Diseases, National Institutes of Health, Phoenix, AZ 85004, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA; Department of Physiology, University of Arizona, Tucson, AZ 85724, USA; Department of Physiology, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA; Center for Disparities in Diabetes Obesity and Metabolism, University of Arizona, Tucson, AZ 85724, USA; Department of Endocrinology, Metabolism and Diabetes, Mayo Clinic Arizona, Scottsdale, AZ 85259, USA; Department of Endocrinology, Metabolism and Diabetes, Mayo Clinic Arizona, Scottsdale, AZ 85259, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214901837</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Can Exercise Training Alter Human Skeletal Muscle DNA Methylation?</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Metabolites</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/metabo12030222</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35323665</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/metabo12030222</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Physiology, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Physiology, The University of Arizona College of Medicine, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity and Metabolism, The University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293017964</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Mini-review: Mitochondrial DNA methylation in type 2 diabetes and obesity</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-08-25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frontiers in Endocrinology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fendo.2022.968268</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36093112</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fendo.2022.968268</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281290394</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-05-09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Physiology, The University of Arizona College of Medicine, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity and Metabolism, The University of Arizona, Tucson, AZ, United States; Exos, Phoenix, AZ, United States; Center for Health Promotion and Disease Prevention, Arizona State University, Phoenix, AZ, United States; Department of Medicine, Division of Endocrinology, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Medicine, Division of Endocrinology, The University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4302286478</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>A performance review of novel adiposity indices for assessing insulin resistance in a pediatric Latino population</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-10-06</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frontiers in Pediatrics</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fped.2022.1020901</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36275055</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fped.2022.1020901</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>School of Nutritional Sciences and Wellness, University of Arizona, Tucson, AZ 85721, USA; Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ 85721, USA; School of Nutritional Sciences and Wellness, University of Arizona, Tucson, AZ 85721, USA; UA Center for Disparities in Diabetes, Obesity and Metabolism, University of Arizona, Tucson, AZ 85724, USA; UA Center for Disparities in Diabetes, Obesity and Metabolism, University of Arizona, Tucson, AZ 85724, USA; UA Center for Disparities in Diabetes, Obesity and Metabolism, University of Arizona, Tucson, AZ 85724, USA; UA Center for Disparities in Diabetes, Obesity and Metabolism, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4303696731</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Tools to Measure Health Literacy among Adult Hispanic Populations with Type 2 Diabetes Mellitus: A Review of the Literature</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph191912551</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36231846</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph191912551</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Dawn K Coletta_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Dawn K Coletta_2022.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -621,57 +621,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Neusha Barakati, Rocio Zapata Bustos, Dawn K. Coletta, Paul Langlais, Lindsay N. Kohler, Moulun Luo, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
+          <t>Mac B. McGraw, Lindsay N. Kohler, Gabriel Q. Shaibi, Lawrence J. Mandarino, Dawn K. Coletta</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
+          <t>The University of Arizona College of Medicine, United States; Exos, United States; The University of Arizona, United States; Arizona State University, United States; The University of Arizona, United States; The University of Arizona, United States</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281290394</t>
+          <t>https://openalex.org/W4302286478</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
+          <t>A performance review of novel adiposity indices for assessing insulin resistance in a pediatric Latino population</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Frontiers in Pediatrics</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
+          <t>https://doi.org/10.3389/fped.2022.1020901</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36275055</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
+          <t>https://doi.org/10.3389/fped.2022.1020901</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,57 +708,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mac B. McGraw, Lindsay N. Kohler, Gabriel Q. Shaibi, Lawrence J. Mandarino, Dawn K. Coletta</t>
+          <t>Neusha Barakati, Rocio Zapata Bustos, Dawn K. Coletta, Paul Langlais, Lindsay N. Kohler, Moulun Luo, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Department of Physiology, The University of Arizona College of Medicine, Tucson, AZ, United States; Center for Disparities in Diabetes, Obesity and Metabolism, The University of Arizona, Tucson, AZ, United States; Exos, Phoenix, AZ, United States; Center for Health Promotion and Disease Prevention, Arizona State University, Phoenix, AZ, United States; Department of Medicine, Division of Endocrinology, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Medicine, Division of Endocrinology, The University of Arizona College of Medicine, Tucson, AZ, United States</t>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302286478</t>
+          <t>https://openalex.org/W4281290394</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A performance review of novel adiposity indices for assessing insulin resistance in a pediatric Latino population</t>
+          <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frontiers in Pediatrics</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fped.2022.1020901</t>
+          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36275055</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fped.2022.1020901</t>
+          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
